--- a/data/trans_camb/P6902-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P6902-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P6902-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P6902-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>28,52</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,7</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,25</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,5</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>38,21</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,64</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,39</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>35,7</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,01; 59,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,16; 24,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,5; 63,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,56; 43,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,2; 51,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,07; 62,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,05; 43,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,32; 25,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,24; 57,88</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,79%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,16%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,86%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,24%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,96%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,7%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,4; 206,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,26; 85,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 192,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,34; 133,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,9; 163,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,69; 213,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,11; 135,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,29; 76,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,32; 176,64</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>29,87</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,67</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,12</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,53; 24,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,72; 7,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,33; 44,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,91; 14,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,15; 21,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,91; 32,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,21; 15,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,26; 8,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,6; 35,63</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,47%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,96%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,23%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,32%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,91%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,34%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,05%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,86%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,32; 61,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,86; 20,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,67; 123,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,07; 29,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,78; 45,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 68,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,84; 36,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,22; 19,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,7; 81,71</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,71</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,51</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,18</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,91</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,31</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,68</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,7</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,58; 14,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,21; 5,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,67; 21,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,98; 27,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,87; 28,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,03; 26,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,27; 15,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,25; 9,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,39; 19,86</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,65%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,38%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,21%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,66%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,49%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,02%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,33%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,18; 36,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,67; 14,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,19; 55,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,66; 69,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,43; 72,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,13; 66,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,7; 37,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,1; 22,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,7; 47,07</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,21</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,99</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,3</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,14</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,89</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,32</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,24</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,44; 6,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,11; 20,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,8; 31,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,44; 25,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,51; 27,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,13; 31,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,67; 8,09</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,84; 17,73</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,88; 26,02</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,63%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,49%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,68%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,45%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,33%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,19%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,07; 17,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,62; 50,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,81; 82,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,74; 67,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,37; 75,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,01; 90,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,48; 18,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,05; 43,27</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,18; 63,05</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,43</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,88</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>33,91</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>27,43</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>27,58</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>30,51</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,68</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>27,01</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>33,69</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,04; 35,23</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,47; 42,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,32; 50,48</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,01; 57,21</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,53; 56,75</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,65; 54,48</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,24; 37,77</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,69; 41,18</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,85; 46,75</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,13%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,47%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>112,42%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,96%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,38%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>84,5%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,56%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,63%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>106,78%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,75; 177,63</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,07; 217,95</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,43; 259,96</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,85; 405,58</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,63; 378,8</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,21; 381,51</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,04; 170,15</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,56; 184,29</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,69; 220,4</t>
         </is>
       </c>
     </row>
@@ -1722,37 +1722,37 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
+          <t>-74,09</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-54,12</t>
         </is>
       </c>
     </row>
@@ -1823,42 +1823,42 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>-74,09%</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="H26" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
+      <c r="I26" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,12%</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,97</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,2</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,24</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,64</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,19</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,76</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,76; 10,4</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,6; 7,24</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,01; 25,77</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,02; 15,87</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 18,05</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,9; 22,61</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 10,73</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,02; 10,16</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,95; 23,31</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,02%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,7%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,99%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,56%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,67%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,31; 25,86</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,43; 17,69</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,63; 64,46</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,05; 34,04</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,81; 40,37</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,13; 49,07</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,8; 25,35</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,13; 23,7</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,33; 54,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6902-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P6902-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,7</t>
+          <t>10,91</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>38,21</t>
+          <t>37,3</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>35,7</t>
+          <t>33,46</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-49,5; 63,3</t>
+          <t>-49,88; 62,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,07; 62,23</t>
+          <t>3,0; 62,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,24; 57,88</t>
+          <t>-2,09; 57,06</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>40,16%</t>
+          <t>27,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>80,24%</t>
+          <t>78,35%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>85,7%</t>
+          <t>80,34%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 192,41</t>
+          <t>-100,0; 187,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,69; 213,37</t>
+          <t>8,67; 209,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,32; 176,64</t>
+          <t>-2,35; 167,01</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>29,87</t>
+          <t>30,49</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,67</t>
+          <t>14,24</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>24,12</t>
+          <t>24,34</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,33; 44,91</t>
+          <t>11,53; 45,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 32,79</t>
+          <t>-2,56; 32,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,6; 35,63</t>
+          <t>10,52; 35,51</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>68,23%</t>
+          <t>69,64%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>25,91%</t>
+          <t>25,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>49,86%</t>
+          <t>50,31%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,67; 123,62</t>
+          <t>25,06; 124,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 68,53</t>
+          <t>-3,49; 67,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,7; 81,71</t>
+          <t>22,01; 81,76</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,51</t>
+          <t>7,76</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,31</t>
+          <t>10,09</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>9,7</t>
+          <t>9,13</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 21,68</t>
+          <t>-6,47; 21,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 26,14</t>
+          <t>-4,61; 25,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 19,86</t>
+          <t>-1,1; 18,91</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>16,76%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>20,49%</t>
+          <t>20,05%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>20,33%</t>
+          <t>19,14%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-11,19; 55,26</t>
+          <t>-12,5; 53,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 66,27</t>
+          <t>-9,56; 65,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 47,07</t>
+          <t>-1,97; 45,25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>16,99</t>
+          <t>16,05</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,14</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>15,24</t>
+          <t>9,37</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,8; 31,83</t>
+          <t>2,8; 31,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 31,64</t>
+          <t>-29,23; 25,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,88; 26,02</t>
+          <t>-12,08; 22,32</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>36,49%</t>
+          <t>34,48%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>24,45%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>32,19%</t>
+          <t>19,79%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,81; 82,86</t>
+          <t>5,17; 80,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 90,34</t>
+          <t>-47,07; 62,74</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,18; 63,05</t>
+          <t>-21,27; 52,15</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>33,91</t>
+          <t>33,25</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>30,51</t>
+          <t>30,32</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>33,69</t>
+          <t>33,22</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>14,32; 50,48</t>
+          <t>14,06; 50,01</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 54,48</t>
+          <t>-0,96; 54,21</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>18,85; 46,75</t>
+          <t>18,31; 46,16</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>112,42%</t>
+          <t>110,21%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>84,5%</t>
+          <t>83,97%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>106,78%</t>
+          <t>105,31%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>32,43; 259,96</t>
+          <t>32,35; 272,74</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 381,51</t>
+          <t>-1,53; 378,62</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>44,69; 220,4</t>
+          <t>43,22; 217,39</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-74,09</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1747,12 +1747,12 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-54,12</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1823,12 +1823,12 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-74,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1853,12 +1853,12 @@
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-54,12%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>18,97</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>6,2</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>9,24</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>13,64</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>5,19</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>17,76</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 10,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 7,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>11,01; 25,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 15,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 18,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>3,9; 22,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 10,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 10,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>11,95; 23,31</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>0,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>43,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>26,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>38,67%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>3,45</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>18,43</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>6,2</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>9,24</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>9,16</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>5,19</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>4,04</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>15,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-3,76; 10,4</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-7,6; 7,24</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>10,22; 25,32</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-4,02; 15,87</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-0,47; 18,05</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-8,86; 19,0</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-0,27; 10,73</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-2,02; 10,16</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>3,88; 21,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>7,95%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,02%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>42,44%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>12,07%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>17,99%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>17,85%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>11,3%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>8,8%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>33,14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-8,31; 25,86</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-16,43; 17,69</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>23,63; 64,46</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>22,17; 62,92</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-7,05; 34,04</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-0,81; 40,37</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>7,13; 49,07</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-16,09; 40,18</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-0,8; 25,35</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-4,13; 23,7</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>24,33; 54,14</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>8,49; 48,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P6902-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P6902-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 59,46</t>
+          <t>-12,91; 59,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-32,16; 24,6</t>
+          <t>-32,32; 25,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-49,88; 62,44</t>
+          <t>-48,46; 64,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-29,56; 43,45</t>
+          <t>-27,12; 46,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,2; 51,16</t>
+          <t>-17,28; 53,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,0; 62,1</t>
+          <t>1,71; 61,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 43,44</t>
+          <t>-4,62; 44,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-18,32; 25,89</t>
+          <t>-15,19; 27,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 57,06</t>
+          <t>-3,98; 56,24</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,4; 206,3</t>
+          <t>-24,01; 199,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-71,26; 85,93</t>
+          <t>-70,83; 84,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 187,88</t>
+          <t>-100,0; 197,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-52,34; 133,45</t>
+          <t>-44,77; 145,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,9; 163,87</t>
+          <t>-33,49; 175,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,67; 209,93</t>
+          <t>6,85; 217,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-11,11; 135,53</t>
+          <t>-9,79; 128,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-39,29; 76,07</t>
+          <t>-33,24; 79,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 167,01</t>
+          <t>-1,78; 166,29</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 24,31</t>
+          <t>-5,37; 23,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,72; 7,53</t>
+          <t>-21,56; 6,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,53; 45,06</t>
+          <t>11,82; 47,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,91; 14,47</t>
+          <t>-19,01; 14,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,15; 21,31</t>
+          <t>-13,61; 19,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 32,18</t>
+          <t>-4,08; 30,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 15,9</t>
+          <t>-5,38; 16,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,26; 8,67</t>
+          <t>-13,42; 8,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,52; 35,51</t>
+          <t>11,14; 35,55</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 61,96</t>
+          <t>-10,5; 63,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-41,86; 20,84</t>
+          <t>-43,19; 17,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,06; 124,62</t>
+          <t>24,69; 128,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,07; 29,96</t>
+          <t>-29,23; 30,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,78; 45,19</t>
+          <t>-21,66; 41,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 67,83</t>
+          <t>-5,15; 63,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 36,96</t>
+          <t>-10,88; 37,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,22; 19,85</t>
+          <t>-25,17; 18,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,01; 81,76</t>
+          <t>20,78; 80,69</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 14,41</t>
+          <t>-12,75; 14,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-21,21; 5,53</t>
+          <t>-21,8; 4,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 21,05</t>
+          <t>-6,25; 21,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 27,58</t>
+          <t>-5,5; 26,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 28,3</t>
+          <t>-4,01; 29,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 25,81</t>
+          <t>-4,6; 26,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 15,77</t>
+          <t>-5,29; 16,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,25; 9,49</t>
+          <t>-10,45; 9,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 18,91</t>
+          <t>-0,69; 19,05</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-25,18; 36,43</t>
+          <t>-25,02; 35,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-41,67; 14,11</t>
+          <t>-40,87; 13,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,5; 53,24</t>
+          <t>-12,06; 53,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 69,99</t>
+          <t>-8,35; 68,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 72,23</t>
+          <t>-7,48; 70,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 65,58</t>
+          <t>-7,62; 65,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 37,01</t>
+          <t>-10,0; 36,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-21,1; 22,44</t>
+          <t>-19,84; 23,39</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 45,25</t>
+          <t>-1,26; 45,12</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-23,44; 6,95</t>
+          <t>-22,13; 7,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 20,05</t>
+          <t>-11,83; 18,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,8; 31,26</t>
+          <t>0,06; 29,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-21,44; 25,48</t>
+          <t>-23,18; 22,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-15,51; 27,79</t>
+          <t>-15,56; 27,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-29,23; 25,65</t>
+          <t>-30,65; 23,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-16,67; 8,09</t>
+          <t>-17,64; 8,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 17,73</t>
+          <t>-7,85; 17,49</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 22,32</t>
+          <t>-12,3; 22,72</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-44,07; 17,11</t>
+          <t>-41,65; 18,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,62; 50,39</t>
+          <t>-22,04; 49,69</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,17; 80,99</t>
+          <t>1,0; 79,58</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-35,74; 67,26</t>
+          <t>-38,11; 62,73</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-25,37; 75,37</t>
+          <t>-25,27; 72,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-47,07; 62,74</t>
+          <t>-45,9; 55,56</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-32,48; 18,98</t>
+          <t>-32,46; 20,3</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-13,05; 43,27</t>
+          <t>-14,32; 43,84</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-21,27; 52,15</t>
+          <t>-20,3; 53,27</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 35,23</t>
+          <t>-6,05; 33,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,47; 42,75</t>
+          <t>4,8; 45,21</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>14,06; 50,01</t>
+          <t>14,21; 51,17</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 57,21</t>
+          <t>-10,87; 59,09</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 56,75</t>
+          <t>-5,84; 55,61</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 54,21</t>
+          <t>0,75; 54,88</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,24; 37,77</t>
+          <t>3,1; 36,61</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>9,69; 41,18</t>
+          <t>8,42; 43,71</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>18,31; 46,16</t>
+          <t>17,99; 46,28</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 177,63</t>
+          <t>-14,77; 158,65</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>2,07; 217,95</t>
+          <t>8,69; 215,24</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>32,35; 272,74</t>
+          <t>31,72; 270,1</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-13,85; 405,58</t>
+          <t>-16,13; 417,82</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-13,63; 378,8</t>
+          <t>-10,02; 378,1</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 378,62</t>
+          <t>0,34; 374,11</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>4,04; 170,15</t>
+          <t>8,4; 165,88</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>24,56; 184,29</t>
+          <t>23,04; 211,74</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>43,22; 217,39</t>
+          <t>46,59; 220,7</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 10,4</t>
+          <t>-3,32; 10,75</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 7,24</t>
+          <t>-7,17; 6,81</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>10,22; 25,32</t>
+          <t>11,83; 25,95</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 15,87</t>
+          <t>-3,15; 15,3</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 18,05</t>
+          <t>-1,21; 18,09</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 19,0</t>
+          <t>-8,95; 19,12</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 10,73</t>
+          <t>-0,68; 10,81</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 10,16</t>
+          <t>-1,91; 9,6</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>3,88; 21,24</t>
+          <t>4,85; 21,39</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 25,86</t>
+          <t>-7,2; 25,81</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-16,43; 17,69</t>
+          <t>-15,62; 16,88</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>22,17; 62,92</t>
+          <t>25,51; 64,31</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 34,04</t>
+          <t>-5,97; 33,11</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 40,37</t>
+          <t>-2,09; 39,78</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-16,09; 40,18</t>
+          <t>-15,4; 40,44</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 25,35</t>
+          <t>-1,37; 25,55</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 23,7</t>
+          <t>-3,76; 22,4</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>8,49; 48,43</t>
+          <t>11,16; 49,41</t>
         </is>
       </c>
     </row>
